--- a/Data/Stack gap - 3071298014/3071298014.xlsx
+++ b/Data/Stack gap - 3071298014/3071298014.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\Local Translations\Data\Stack gap - 3071298014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\240122\Stack gap - 3071298014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53F714F-5B7F-416F-9F5C-4381BA99D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6831F5-4052-48AF-957C-2D4195CB666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240130" sheetId="1" r:id="rId1"/>
+    <sheet name="231104" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -31,6 +45,213 @@
     <t>Node [Not chosen]</t>
   </si>
   <si>
+    <t>Required Mods [Not chosen]</t>
+  </si>
+  <si>
+    <t>English [Source string]</t>
+  </si>
+  <si>
+    <t>Korean (한국어) [Translation]</t>
+  </si>
+  <si>
+    <t>Keyed+StackGap</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>StackGap</t>
+  </si>
+  <si>
+    <t>stack limit</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackStorageTooltip</t>
+  </si>
+  <si>
+    <t>MultistackStorageTooltip</t>
+  </si>
+  <si>
+    <t>Enable multistack.\nExpect that similar items cannot be multistacked for fit in criteria</t>
+  </si>
+  <si>
+    <t>Keyed+SimilarStackLimit</t>
+  </si>
+  <si>
+    <t>SimilarStackLimit</t>
+  </si>
+  <si>
+    <t>Limit similar stacks x{0}</t>
+  </si>
+  <si>
+    <t>Keyed+SimilarStackLimitDisabled</t>
+  </si>
+  <si>
+    <t>SimilarStackLimitDisabled</t>
+  </si>
+  <si>
+    <t>Unlimited similar stacks</t>
+  </si>
+  <si>
+    <t>Keyed+StackGapSettingsCategory</t>
+  </si>
+  <si>
+    <t>StackGapSettingsCategory</t>
+  </si>
+  <si>
+    <t>Stack gap</t>
+  </si>
+  <si>
+    <t>Keyed+EnableHardEjection</t>
+  </si>
+  <si>
+    <t>EnableHardEjection</t>
+  </si>
+  <si>
+    <t>Enable forced item ejection</t>
+  </si>
+  <si>
+    <t>Keyed+EnableHardEjectionTooltip</t>
+  </si>
+  <si>
+    <t>EnableHardEjectionTooltip</t>
+  </si>
+  <si>
+    <t>If enabled, overflow of items from the storages will be forcibly ejected on floor, to meet the specified criteria</t>
+  </si>
+  <si>
+    <t>Keyed+DisplayLogFactorInfo</t>
+  </si>
+  <si>
+    <t>DisplayLogFactorInfo</t>
+  </si>
+  <si>
+    <t>Stack limit slider in storages is not linear for usability. If your item stacks can store thousands of items, set this value higher (default 3.0)</t>
+  </si>
+  <si>
+    <t>Keyed+DisplayLogFactor</t>
+  </si>
+  <si>
+    <t>DisplayLogFactor</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Keyed+DisplayLogFactorExample</t>
+  </si>
+  <si>
+    <t>DisplayLogFactorExample</t>
+  </si>
+  <si>
+    <t>And here you can see how this modifier works:</t>
+  </si>
+  <si>
+    <t>Keyed+DisplayLogFactorExampleNote</t>
+  </si>
+  <si>
+    <t>DisplayLogFactorExampleNote</t>
+  </si>
+  <si>
+    <t>(this slider has no effect on anything)</t>
+  </si>
+  <si>
+    <t>Keyed+PressIfStackSizeChangedRuntime</t>
+  </si>
+  <si>
+    <t>PressIfStackSizeChangedRuntime</t>
+  </si>
+  <si>
+    <t>Press if you changed stack size after starting the game by mods</t>
+  </si>
+  <si>
+    <t>Keyed+PercentageMode</t>
+  </si>
+  <si>
+    <t>PercentageMode</t>
+  </si>
+  <si>
+    <t>Use percentage instead of item count</t>
+  </si>
+  <si>
+    <t>Keyed+EnableSimilarStackLimits</t>
+  </si>
+  <si>
+    <t>EnableSimilarStackLimits</t>
+  </si>
+  <si>
+    <t>Enable similar stacks limit stuff</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackDisabled</t>
+  </si>
+  <si>
+    <t>MultistackDisabled</t>
+  </si>
+  <si>
+    <t>Multistack disabled</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackModeDisabledTooltip</t>
+  </si>
+  <si>
+    <t>MultistackModeDisabledTooltip</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackEnabledGlobal</t>
+  </si>
+  <si>
+    <t>MultistackEnabledGlobal</t>
+  </si>
+  <si>
+    <t>Multistack enabled global</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackModeEnabledGlobalTooltip</t>
+  </si>
+  <si>
+    <t>MultistackModeEnabledGlobalTooltip</t>
+  </si>
+  <si>
+    <t>Multistack enabled for every storage. Enable it if you dont like checkbox in storage settings</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackEnabledPerStorage</t>
+  </si>
+  <si>
+    <t>MultistackEnabledPerStorage</t>
+  </si>
+  <si>
+    <t>Multistack per storage</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackModeEnabledPerStorageTooltip</t>
+  </si>
+  <si>
+    <t>MultistackModeEnabledPerStorageTooltip</t>
+  </si>
+  <si>
+    <t>Multistack can be enabled or disabled for each storage individually. No performance cost</t>
+  </si>
+  <si>
+    <t>Keyed+LimitSliderMaxValue</t>
+  </si>
+  <si>
+    <t>LimitSliderMaxValue</t>
+  </si>
+  <si>
+    <t>Limit slider max value:</t>
+  </si>
+  <si>
+    <t>Keyed+MultistackInfo</t>
+  </si>
+  <si>
+    <t>MultistackInfo</t>
+  </si>
+  <si>
+    <t>Multistack means how many item stacks can be placed in one world cell. Many custom storages can handle more that one stack.\nNo affect unrestricted storages. Expect that similar items cannot be multistacked for fit in criteria</t>
+  </si>
+  <si>
     <t>EN [Source string]</t>
   </si>
   <si>
@@ -40,144 +261,154 @@
     <t>Configs [Not chosen]</t>
   </si>
   <si>
-    <t>Keyed+StackGap</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>StackGap</t>
-  </si>
-  <si>
     <t>Stack limit</t>
   </si>
   <si>
+    <t>수량 제한</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>pakageID</t>
   </si>
   <si>
-    <t>Keyed+StackGapSettingsCategory</t>
-  </si>
-  <si>
-    <t>StackGapSettingsCategory</t>
-  </si>
-  <si>
-    <t>Stack gap</t>
+    <t>수량 제한 초과시 강제로 스택 분할</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>modName (folderName)</t>
+  </si>
+  <si>
+    <t>저장구역에 놓인 물품이 지정된 수량을 넘어서는 경우 강제로 바닥에 떨어트립니다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack gap - 3071298014</t>
+  </si>
+  <si>
+    <t>수량 제한 슬라이더는 편의를 위해 각 구간이 비선형적으로 되어있습니다.\n\n비선형도가 낮을수록 슬라이더의 상대적 위치와 수량이 일치하며, 높을수록 낮은 수량 구간에서 더 세밀한 설정이 가능합니다.\n\n설정 (기본값 3.0):</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선형도</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선형도에 따른 변화는 다음 슬라이더로 확인해보세요:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(위 슬라이더는 게임에 영향을 주지 않습니다)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 등으로 스택 크기가 바뀐 경우 이 버튼을 눌러서 재설정하세요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량 제한</t>
+  </si>
+  <si>
+    <t>수량 제한 초과시 강제로 스택 분할</t>
+  </si>
+  <si>
+    <t>수량 제한 슬라이더는 편의를 위해 각 구간이 비선형적으로 되어있습니다.\n\n비선형도가 낮을수록 슬라이더의 상대적 위치와 수량이 일치하며, 높을수록 낮은 수량 구간에서 더 세밀한 설정이 가능합니다.\n\n설정 (기본값 3.0):</t>
+  </si>
+  <si>
+    <t>비선형도</t>
+  </si>
+  <si>
+    <t>비선형도에 따른 변화는 다음 슬라이더로 확인해보세요:</t>
+  </si>
+  <si>
+    <t>(위 슬라이더는 게임에 영향을 주지 않습니다)</t>
+  </si>
+  <si>
+    <t>모드 등으로 스택 크기가 바뀐 경우 이 버튼을 눌러서 재설정하세요</t>
   </si>
   <si>
     <t>Andromeda.StackGap</t>
-  </si>
-  <si>
-    <t>Keyed+EnableHardEjection</t>
-  </si>
-  <si>
-    <t>EnableHardEjection</t>
-  </si>
-  <si>
-    <t>Enable forced item ejection</t>
-  </si>
-  <si>
-    <t>modName (folderName)</t>
-  </si>
-  <si>
-    <t>Keyed+EnableHardEjectionTooltip</t>
-  </si>
-  <si>
-    <t>EnableHardEjectionTooltip</t>
-  </si>
-  <si>
-    <t>If enabled, overflow of items from the storages will be forcibly ejected on floor, to meet the specified criteria</t>
-  </si>
-  <si>
-    <t>Stack gap - 3071298014</t>
-  </si>
-  <si>
-    <t>Keyed+DisplayLogFactorInfo</t>
-  </si>
-  <si>
-    <t>DisplayLogFactorInfo</t>
-  </si>
-  <si>
-    <t>Stack limit slider in storages is not linear for usability. If your item stacks can store thousands of items, set this value higher (default 3.0)</t>
-  </si>
-  <si>
-    <t>Keyed+DisplayLogFactor</t>
-  </si>
-  <si>
-    <t>DisplayLogFactor</t>
-  </si>
-  <si>
-    <t>Modifier</t>
-  </si>
-  <si>
-    <t>Keyed+DisplayLogFactorExample</t>
-  </si>
-  <si>
-    <t>DisplayLogFactorExample</t>
-  </si>
-  <si>
-    <t>And here you can see how this modifier works:</t>
-  </si>
-  <si>
-    <t>Keyed+DisplayLogFactorExampleNote</t>
-  </si>
-  <si>
-    <t>DisplayLogFactorExampleNote</t>
-  </si>
-  <si>
-    <t>(this slider has no effect on anything)</t>
-  </si>
-  <si>
-    <t>Keyed+PressIfStackSizeChangedRuntime</t>
-  </si>
-  <si>
-    <t>PressIfStackSizeChangedRuntime</t>
-  </si>
-  <si>
-    <t>Press if you changed stack size after starting the game by mods</t>
-  </si>
-  <si>
-    <t>수량 제한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량 제한 초과시 강제로 스택 분할</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장구역에 놓인 물품이 지정된 수량을 넘어서는 경우 강제로 바닥에 떨어트립니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(위 슬라이더는 게임에 영향을 주지 않습니다)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모드 등으로 스택 크기가 바뀐 경우 이 버튼을 눌러서 재설정하세요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비선형도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량 제한 슬라이더는 편의를 위해 각 구간이 비선형적으로 되어있습니다.\n\n비선형도가 낮을수록 슬라이더의 상대적 위치와 수량이 일치하며, 높을수록 낮은 수량 구간에서 더 세밀한 설정이 가능합니다.\n\n설정 (기본값 3.0):</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비선형도에 따른 변화는 다음 슬라이더로 확인해보세요:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량 대신 최대 저장 공간에 따른 상대적 비율로 동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량 제한 최대값 (0으로 설정시 기본값 500):</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 셀당 최대 스택 제한 활성화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장구역마다 개별 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 안 함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 저장구역에 적용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 변경 등으로 인해 저장구역에 놓인 물품이 지정된 수량을 넘어서는 경우 강제로 바닥에 떨어트립니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 저장구역마다 품목별 셀당 최대 스택을 사용할지 여부를 지정할 수 있습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 저장구역이 품목별 셀당 최대 스택 설정을 사용하도록 합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 셀당 최대 스택 설정을 무시하고 사용하지 않습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 저장구역에 대해 품목별 셀당 최대 스택 설정을 활성화합니다.\n\n각각의 품목마다 저장구역 한 칸에 저장될 수 있는 스택의 수는 설정된 값을 넘어설 수 없습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 셀당 최대 스택 제한은 저장구역 한 칸마다 각각의 품목에 대해 얼마나 많은 스택이 저장될지 설정합니다.\n선반과 같은 대다수의 추가 저장소는 일반적으로 한 칸에 여러 개의 스택을 저장할 수 있습니다.\n무한 스택 저장고에는 적용되지 않습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 셀당 스택 무제한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목별 셀당 최대 스택: x{0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,18 +430,46 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -230,16 +489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,31 +516,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
-    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{A59EEE10-F932-4DB5-B78E-511A3EEF9806}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,20 +846,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="87.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="113.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -620,11 +879,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,161 +893,580 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="F4" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F11" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DE139E-8C18-4B47-A323-D8346D5C1796}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>